--- a/Downer/36122/res_DN1211-ITP-010 Concrete for Minor Structures and Incidental Works Rev00 - IFC.xlsx
+++ b/Downer/36122/res_DN1211-ITP-010 Concrete for Minor Structures and Incidental Works Rev00 - IFC.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\36122\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB83D00-4837-45FA-999D-1A131B5DC0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341FD13F-9395-4B6C-AECC-2DF1094C64E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="2190" windowWidth="26700" windowHeight="17730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11325" yWindow="3105" windowWidth="26700" windowHeight="17730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$181</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -89,28 +89,256 @@
     <t>Engineer Rep Signature - I</t>
   </si>
   <si>
-    <t>5.1 - Excavation</t>
-  </si>
-  <si>
-    <t>Acceptance/Conformance criteria - Set- out position completed RL marked. For excavation level</t>
-  </si>
-  <si>
-    <t>Standard/Specification - Aurecon Civil Spec Section 19.11.2</t>
-  </si>
-  <si>
-    <t>Verifying Document - ITP sign off</t>
-  </si>
-  <si>
-    <t>Frequency - In Process Check</t>
-  </si>
-  <si>
-    <t>Verification Activity: Activity - V</t>
-  </si>
-  <si>
-    <t>Downer Signature - V</t>
-  </si>
-  <si>
-    <t>DN1211-010 ITP Concrete for Minor Structures and Incidental Works Rev0</t>
+    <t>3.01.01 - Construction Pack</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Submit a Construction Pack including a Methodology and JSEA to the Engineer before works</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Downer</t>
+  </si>
+  <si>
+    <t>Verifying Document - Construction Pack</t>
+  </si>
+  <si>
+    <t>Frequency - Submit 5 days prior to commencement of works</t>
+  </si>
+  <si>
+    <t>Verification Activity: Activity - H</t>
+  </si>
+  <si>
+    <t>Verification Activity: By - PE</t>
+  </si>
+  <si>
+    <t>MSQA - R</t>
+  </si>
+  <si>
+    <t>3.02.02 - Survey Setout</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Survey Set out as per contract drawings and specification, capturing pre-construction levels where needed.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Survey Records</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Works</t>
+  </si>
+  <si>
+    <t>3.01.02 - Service Location</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Complete the Excavation permit process to identify, locate and protect all services.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Excavation Permit</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to Excavation</t>
+  </si>
+  <si>
+    <t>Verification Activity: By - SE</t>
+  </si>
+  <si>
+    <t>3.02.03 - Internal Permits</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Complete internal Permits as required to complete works including but not limited to: Hot works, concrete saw, lift, confined space, working at height etc.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Internal Permits</t>
+  </si>
+  <si>
+    <t>3.01.03 - External Permits</t>
+  </si>
+  <si>
+    <t>Verifying Document - External Permits</t>
+  </si>
+  <si>
+    <t>3.02.04 - Approved Construction Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Prior to starting works, Ensure that the construction drawings are both IFC and the Current Version.</t>
+  </si>
+  <si>
+    <t>Verifying Document - IFC Drawings</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to works start</t>
+  </si>
+  <si>
+    <t>4.01.01 - Mix Design</t>
+  </si>
+  <si>
+    <t>Engineer Rep Signature - R</t>
+  </si>
+  <si>
+    <t>4.01.02 - Motar</t>
+  </si>
+  <si>
+    <t>Verifying Document - In process check</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to each pour</t>
+  </si>
+  <si>
+    <t>Verification Activity: Activity - I</t>
+  </si>
+  <si>
+    <t>4.01.03 - Reinforcement</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA Sheet</t>
+  </si>
+  <si>
+    <t>MSQA - I</t>
+  </si>
+  <si>
+    <t>5.01.02 - Pour Plan</t>
+  </si>
+  <si>
+    <t>Standard/Specification - NZS 3124</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA Sheet Delivery Dockets</t>
+  </si>
+  <si>
+    <t>Frequency - For Each Pour</t>
+  </si>
+  <si>
+    <t>Verification Activity: Activity - W</t>
+  </si>
+  <si>
+    <t>5.01.03 - Testing</t>
+  </si>
+  <si>
+    <t>Downer Signature - H</t>
+  </si>
+  <si>
+    <t>5.01.04 - Independent Testing</t>
+  </si>
+  <si>
+    <t>Verifying Document - IANZ Lab Report</t>
+  </si>
+  <si>
+    <t>Frequency - Upon Request</t>
+  </si>
+  <si>
+    <t>6.01.01 - Construction Record Compilation</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Compile construction records for final submission ensuring defects (NCRs) / Snags / missing records are captured or closed out, all tests have been received and passed, and changes / omissions have been noted.</t>
+  </si>
+  <si>
+    <t>Verifying Document - Records</t>
+  </si>
+  <si>
+    <t>Frequency - Post construction</t>
+  </si>
+  <si>
+    <t>6.01.02 - Survey Records</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Ensure all items have been surveyed and records are assembled for asbuilting</t>
+  </si>
+  <si>
+    <t>6.01.03 - Redline Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Create a set of Redline Drawings for Asbuilt creation noting all changes and departures in red pen/RFI reference</t>
+  </si>
+  <si>
+    <t>Verifying Document - Redlines</t>
+  </si>
+  <si>
+    <t>6.01.04 - Defect, Snag and Punch List</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Update the project Defect, Snag and Punch List Register</t>
+  </si>
+  <si>
+    <t>Verifying Document - Register</t>
+  </si>
+  <si>
+    <t>5.01.01 - Pre Pour Inspection Concrete Placement</t>
+  </si>
+  <si>
+    <t>SECTION 4 – MATERIAL, PERSONNEL &amp; THIRD PARTY APPROVAL</t>
+  </si>
+  <si>
+    <t>SECTION 5 – CONSTRUCTION ACTIVITY – CONCRETE INSTALLATION</t>
+  </si>
+  <si>
+    <t>SECTION 6 – POST CONSTRUCTION (FINAL INSPECTION AND HANDOVER)</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Typical structures ‐Confirm supply of 'high grade' 20MPaconcrete; 19mm max aggregate size.</t>
+  </si>
+  <si>
+    <t>General site concrete</t>
+  </si>
+  <si>
+    <t>○ 10MPa Where specified ondrawings, use marine grade concrete</t>
+  </si>
+  <si>
+    <t>○ 30MPa The Contractor shallensure that the readymix supplier can provide mix designinformation andstrength testingrecords on request.</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec Section 14.6</t>
+  </si>
+  <si>
+    <t>Verifying Document - Mix Design Report Approval</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Consisting of two parts fine, sharp, well graded sand to one part dry cementMix by hand or mixer in small qunatities,use within 30 minutes</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec Section 14.6.5</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Reinforcement andembedded items cut, bent (cold) andaccurately placed asshown on design drawings. At least30mm cover to all reinforcing +5mm/‐0mmBar spacing as per drawings +/‐ 10mmBend locations as perdrawings +/‐5mm</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Notify Engineer for inspection of formwork 24 hours prior to pour forinspection</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Place concrete and construction joints as per design drawings Exposed surfaces: F4 formed finish (or F5 if specified), U2 screeded finish Slabs: U3 trowel finish for internal slabs, U5 textured forexternal slabs</t>
+  </si>
+  <si>
+    <t>○ Delivery dockets dated and showing the concrete supplier and design strength shall be collected and held for every pour. Record location and date of each pour</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Slump test during pour to check workability of concrete or as directed by Engineer 3 cylinder tests taken for each pour. Slump target as per mix design 120 mm when measured at the point of delivery to site.</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec Section 14.6.7, AS/NZS 4671</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA Sheet, UCS Test Report</t>
+  </si>
+  <si>
+    <t>Frequency - Each pour / every 75m3 (one sample for pours less than 75m3)</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - The Engineer's Rep may request site samples/cores for independent testing of fresh or cured concrete to review the grading, mix design, strength and thickness.</t>
+  </si>
+  <si>
+    <t>Acceptance/Conformance criteria - Obtain External Permits as required to complete works including but not limited to: Close approach, Worksafe Notice etc.</t>
+  </si>
+  <si>
+    <t>Frequency - Upon Request / prior to Use</t>
+  </si>
+  <si>
+    <t>Standard/Specification - Aurecon Civil Spec; Section 14.7.12, NZS 3112</t>
+  </si>
+  <si>
+    <t>DN1211-010 ITP Concrete for Minor Structures and Incidental Works Rev 0</t>
   </si>
 </sst>
 </file>
@@ -259,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +682,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -626,6 +866,18 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,7 +1233,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1035,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -1045,7 +1298,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -1065,72 +1318,1215 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:I12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I181" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+        <filter val="checkpoint"/>
+        <filter val="section"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
